--- a/test.xlsx
+++ b/test.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -121,6 +121,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,10 +203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -278,90 +279,106 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>16</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -203,10 +203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,106 +279,90 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>4</v>
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="0" t="s">
         <v>16</v>
       </c>
     </row>
